--- a/PhoPQ/210929_phop1_shift.xlsx
+++ b/PhoPQ/210929_phop1_shift.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbutc\Desktop\Rice\Research\Fall2021\paper\MATLAB\PhoPQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbutc\Desktop\Rice\Research\Spring2022\paper\Data\PhoPQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F5A6094-06AA-4B8D-920B-4467C7BC429F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D585424-D249-480B-BF9F-0EA646A6AC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14952" yWindow="2100" windowWidth="16104" windowHeight="9696" xr2:uid="{D75A8A17-BF87-42BB-AC36-7CAB0E7B5B45}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{D75A8A17-BF87-42BB-AC36-7CAB0E7B5B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,28 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>PhoP-mNG</t>
   </si>
   <si>
-    <t>NR</t>
+    <t>PhoP(D52N)-mNG</t>
+  </si>
+  <si>
+    <t>+LL37</t>
   </si>
 </sst>
 </file>
@@ -87,11 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +421,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19:L34"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,8 +430,14 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="G1" t="s">
         <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
